--- a/통합수업자료_shjung.xlsx
+++ b/통합수업자료_shjung.xlsx
@@ -9,27 +9,28 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="14445" windowHeight="16080" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="14445" windowHeight="16080" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="비트_240715" sheetId="1" r:id="rId1"/>
     <sheet name="그리스문자" sheetId="14" r:id="rId2"/>
     <sheet name="데이터타입(자료형)" sheetId="15" r:id="rId3"/>
     <sheet name="그래프양식1" sheetId="16" r:id="rId4"/>
-    <sheet name="머신러닝기초_Transpose_전치" sheetId="17" r:id="rId5"/>
-    <sheet name="깃허브_GIT" sheetId="18" r:id="rId6"/>
-    <sheet name="컴퓨터상식" sheetId="2" r:id="rId7"/>
-    <sheet name="자료형" sheetId="3" r:id="rId8"/>
-    <sheet name="연산자" sheetId="9" r:id="rId9"/>
-    <sheet name="클래스" sheetId="4" r:id="rId10"/>
-    <sheet name="문자열" sheetId="5" r:id="rId11"/>
-    <sheet name="자료구조_알고리즘" sheetId="6" r:id="rId12"/>
-    <sheet name="쿠팡홈페이지_이미지" sheetId="7" r:id="rId13"/>
-    <sheet name="테이블연습" sheetId="8" r:id="rId14"/>
-    <sheet name="반복문" sheetId="10" r:id="rId15"/>
-    <sheet name="함수" sheetId="11" r:id="rId16"/>
-    <sheet name="기초수학" sheetId="12" r:id="rId17"/>
-    <sheet name="Sheet2" sheetId="13" r:id="rId18"/>
+    <sheet name="MNIST데이타셋" sheetId="19" r:id="rId5"/>
+    <sheet name="머신러닝기초_Transpose_전치" sheetId="17" r:id="rId6"/>
+    <sheet name="깃허브_GIT" sheetId="18" r:id="rId7"/>
+    <sheet name="컴퓨터상식" sheetId="2" r:id="rId8"/>
+    <sheet name="자료형" sheetId="3" r:id="rId9"/>
+    <sheet name="연산자" sheetId="9" r:id="rId10"/>
+    <sheet name="클래스" sheetId="4" r:id="rId11"/>
+    <sheet name="문자열" sheetId="5" r:id="rId12"/>
+    <sheet name="자료구조_알고리즘" sheetId="6" r:id="rId13"/>
+    <sheet name="쿠팡홈페이지_이미지" sheetId="7" r:id="rId14"/>
+    <sheet name="테이블연습" sheetId="8" r:id="rId15"/>
+    <sheet name="반복문" sheetId="10" r:id="rId16"/>
+    <sheet name="함수" sheetId="11" r:id="rId17"/>
+    <sheet name="기초수학" sheetId="12" r:id="rId18"/>
+    <sheet name="Sheet2" sheetId="13" r:id="rId19"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="569">
   <si>
     <t>bit</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2531,6 +2532,22 @@
   </si>
   <si>
     <t>ν</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">row </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cols</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차원</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2836,7 +2853,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2936,6 +2953,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF9FC5E8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3130,7 +3171,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3437,6 +3478,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3478,15 +3540,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -8012,8 +8065,8 @@
       <xdr:rowOff>17938</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="549307" cy="552587"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1"/>
@@ -8092,7 +8145,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -8108,7 +8161,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -8121,7 +8174,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -8135,7 +8188,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -8158,7 +8211,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1"/>
@@ -8409,8 +8462,8 @@
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="200025" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="22" name="TextBox 21"/>
@@ -8446,6 +8499,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -8466,7 +8520,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="22" name="TextBox 21"/>
@@ -8524,8 +8578,8 @@
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="112980" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="23" name="TextBox 22"/>
@@ -8561,6 +8615,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -8581,7 +8636,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="23" name="TextBox 22"/>
@@ -8639,8 +8694,8 @@
       <xdr:rowOff>84614</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="777907" cy="420212"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="30" name="TextBox 29"/>
@@ -8719,7 +8774,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -8735,7 +8790,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -8748,7 +8803,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -8785,7 +8840,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="30" name="TextBox 29"/>
@@ -8919,8 +8974,8 @@
       <xdr:rowOff>122713</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="844582" cy="380361"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="31" name="TextBox 30"/>
@@ -8985,7 +9040,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -9005,7 +9060,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -9021,7 +9076,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -9038,34 +9093,10 @@
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
-                              <m:t>−</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>1</m:t>
+                              <m:t>−1</m:t>
                             </m:r>
                           </m:num>
                           <m:den>
-                            <m:r>
-                              <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>−</m:t>
-                            </m:r>
                             <m:r>
                               <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="1">
                                 <a:solidFill>
@@ -9076,7 +9107,7 @@
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
-                              <m:t>2</m:t>
+                              <m:t>−2</m:t>
                             </m:r>
                           </m:den>
                         </m:f>
@@ -9090,7 +9121,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="31" name="TextBox 30"/>
@@ -9275,8 +9306,8 @@
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="844655" cy="447623"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="35" name="TextBox 34"/>
@@ -9440,7 +9471,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="35" name="TextBox 34"/>
@@ -9557,6 +9588,49 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>247762</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>38281</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="828675" y="6496050"/>
+          <a:ext cx="800212" cy="1295581"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -9766,7 +9840,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -9809,7 +9883,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -10034,7 +10108,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -10617,16 +10691,16 @@
       </c>
     </row>
     <row r="7" spans="2:20">
-      <c r="D7" s="102" t="s">
+      <c r="D7" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
+      <c r="E7" s="109"/>
+      <c r="F7" s="109"/>
+      <c r="G7" s="109"/>
+      <c r="H7" s="109"/>
+      <c r="I7" s="109"/>
+      <c r="J7" s="109"/>
+      <c r="K7" s="109"/>
       <c r="N7" t="s">
         <v>32</v>
       </c>
@@ -11143,21 +11217,21 @@
       <c r="B27" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="103">
+      <c r="C27" s="110">
         <v>3</v>
       </c>
-      <c r="D27" s="103"/>
-      <c r="E27" s="103"/>
-      <c r="F27" s="103">
+      <c r="D27" s="110"/>
+      <c r="E27" s="110"/>
+      <c r="F27" s="110">
         <v>5</v>
       </c>
-      <c r="G27" s="103"/>
-      <c r="H27" s="103"/>
-      <c r="I27" s="103">
+      <c r="G27" s="110"/>
+      <c r="H27" s="110"/>
+      <c r="I27" s="110">
         <v>1</v>
       </c>
-      <c r="J27" s="103"/>
-      <c r="K27" s="103"/>
+      <c r="J27" s="110"/>
+      <c r="K27" s="110"/>
     </row>
     <row r="28" spans="2:14">
       <c r="B28" t="s">
@@ -11203,18 +11277,18 @@
       <c r="B30" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="103" t="s">
+      <c r="D30" s="110" t="s">
         <v>23</v>
       </c>
-      <c r="E30" s="103"/>
-      <c r="F30" s="103"/>
-      <c r="G30" s="103"/>
-      <c r="H30" s="103">
+      <c r="E30" s="110"/>
+      <c r="F30" s="110"/>
+      <c r="G30" s="110"/>
+      <c r="H30" s="110">
         <v>9</v>
       </c>
-      <c r="I30" s="103"/>
-      <c r="J30" s="103"/>
-      <c r="K30" s="103"/>
+      <c r="I30" s="110"/>
+      <c r="J30" s="110"/>
+      <c r="K30" s="110"/>
     </row>
     <row r="31" spans="2:14">
       <c r="B31" t="s">
@@ -11257,21 +11331,21 @@
       <c r="B34" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="103">
+      <c r="C34" s="110">
         <v>3</v>
       </c>
-      <c r="D34" s="103"/>
-      <c r="E34" s="103"/>
-      <c r="F34" s="103">
+      <c r="D34" s="110"/>
+      <c r="E34" s="110"/>
+      <c r="F34" s="110">
         <v>7</v>
       </c>
-      <c r="G34" s="103"/>
-      <c r="H34" s="103"/>
-      <c r="I34" s="103">
+      <c r="G34" s="110"/>
+      <c r="H34" s="110"/>
+      <c r="I34" s="110">
         <v>2</v>
       </c>
-      <c r="J34" s="103"/>
-      <c r="K34" s="103"/>
+      <c r="J34" s="110"/>
+      <c r="K34" s="110"/>
     </row>
     <row r="35" spans="2:14">
       <c r="D35" s="6">
@@ -11306,18 +11380,18 @@
       <c r="B36" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D36" s="103" t="s">
+      <c r="D36" s="110" t="s">
         <v>31</v>
       </c>
-      <c r="E36" s="103"/>
-      <c r="F36" s="103"/>
-      <c r="G36" s="103"/>
-      <c r="H36" s="103" t="s">
+      <c r="E36" s="110"/>
+      <c r="F36" s="110"/>
+      <c r="G36" s="110"/>
+      <c r="H36" s="110" t="s">
         <v>27</v>
       </c>
-      <c r="I36" s="103"/>
-      <c r="J36" s="103"/>
-      <c r="K36" s="103"/>
+      <c r="I36" s="110"/>
+      <c r="J36" s="110"/>
+      <c r="K36" s="110"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -11340,6 +11414,236 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C46"/>
+  <sheetViews>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="3" width="12.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3">
+      <c r="B2" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" s="36"/>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="C4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" s="36"/>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" s="36" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" s="36"/>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" s="36" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" s="36"/>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" s="36" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11" s="36"/>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="B12" s="36" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="B13" s="36"/>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="B14" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="B15" s="36"/>
+      <c r="C15" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3">
+      <c r="B16" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="C16" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" t="s">
+        <v>167</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11390,7 +11694,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D11"/>
   <sheetViews>
@@ -11460,7 +11764,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L149"/>
   <sheetViews>
@@ -11541,10 +11845,10 @@
       </c>
     </row>
     <row r="9" spans="2:12">
-      <c r="K9" s="115" t="s">
+      <c r="K9" s="122" t="s">
         <v>109</v>
       </c>
-      <c r="L9" s="115"/>
+      <c r="L9" s="122"/>
     </row>
     <row r="12" spans="2:12">
       <c r="B12" t="s">
@@ -12130,7 +12434,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -12146,7 +12450,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E7"/>
   <sheetViews>
@@ -12226,7 +12530,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:B45"/>
   <sheetViews>
@@ -12418,7 +12722,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:B11"/>
   <sheetViews>
@@ -12467,7 +12771,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Z78"/>
   <sheetViews>
@@ -12922,7 +13226,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -14756,10 +15060,10 @@
       <c r="E46" s="44"/>
       <c r="F46" s="44"/>
       <c r="G46" s="44"/>
-      <c r="H46" s="107" t="s">
+      <c r="H46" s="114" t="s">
         <v>403</v>
       </c>
-      <c r="I46" s="107"/>
+      <c r="I46" s="114"/>
       <c r="J46" s="44"/>
       <c r="K46" s="44"/>
       <c r="L46" s="44"/>
@@ -15595,25 +15899,25 @@
       </c>
       <c r="C68" s="40"/>
       <c r="D68" s="40"/>
-      <c r="E68" s="108" t="s">
+      <c r="E68" s="115" t="s">
         <v>439</v>
       </c>
-      <c r="F68" s="108"/>
+      <c r="F68" s="115"/>
       <c r="G68" s="40"/>
       <c r="H68" s="40"/>
-      <c r="I68" s="109" t="s">
+      <c r="I68" s="116" t="s">
         <v>440</v>
       </c>
-      <c r="J68" s="109"/>
+      <c r="J68" s="116"/>
       <c r="K68" s="64" t="b">
         <v>0</v>
       </c>
       <c r="L68" s="40"/>
-      <c r="M68" s="108" t="s">
+      <c r="M68" s="115" t="s">
         <v>441</v>
       </c>
-      <c r="N68" s="108"/>
-      <c r="O68" s="108"/>
+      <c r="N68" s="115"/>
+      <c r="O68" s="115"/>
       <c r="P68" s="40"/>
       <c r="Q68" s="40"/>
       <c r="R68" s="40"/>
@@ -15684,7 +15988,7 @@
       <c r="A70" s="44"/>
       <c r="B70" s="44"/>
       <c r="C70" s="44"/>
-      <c r="D70" s="106" t="s">
+      <c r="D70" s="113" t="s">
         <v>447</v>
       </c>
       <c r="E70" s="67"/>
@@ -15693,17 +15997,17 @@
       </c>
       <c r="G70" s="44"/>
       <c r="H70" s="44"/>
-      <c r="I70" s="110" t="s">
+      <c r="I70" s="117" t="s">
         <v>448</v>
       </c>
-      <c r="J70" s="111" t="s">
+      <c r="J70" s="118" t="s">
         <v>449</v>
       </c>
       <c r="K70" s="69" t="s">
         <v>450</v>
       </c>
       <c r="L70" s="44"/>
-      <c r="M70" s="106" t="s">
+      <c r="M70" s="113" t="s">
         <v>451</v>
       </c>
       <c r="N70" s="44"/>
@@ -15731,20 +16035,20 @@
       <c r="A71" s="44"/>
       <c r="B71" s="44"/>
       <c r="C71" s="44"/>
-      <c r="D71" s="106"/>
+      <c r="D71" s="113"/>
       <c r="E71" s="67"/>
       <c r="F71" s="68" t="s">
         <v>349</v>
       </c>
       <c r="G71" s="44"/>
       <c r="H71" s="44"/>
-      <c r="I71" s="110"/>
-      <c r="J71" s="111"/>
+      <c r="I71" s="117"/>
+      <c r="J71" s="118"/>
       <c r="K71" s="69" t="s">
         <v>452</v>
       </c>
       <c r="L71" s="44"/>
-      <c r="M71" s="106"/>
+      <c r="M71" s="113"/>
       <c r="N71" s="44"/>
       <c r="O71" s="44"/>
       <c r="P71" s="44"/>
@@ -15770,7 +16074,7 @@
       <c r="A72" s="44"/>
       <c r="B72" s="44"/>
       <c r="C72" s="44"/>
-      <c r="D72" s="106"/>
+      <c r="D72" s="113"/>
       <c r="E72" s="70" t="s">
         <v>453</v>
       </c>
@@ -15779,11 +16083,11 @@
       </c>
       <c r="G72" s="44"/>
       <c r="H72" s="44"/>
-      <c r="I72" s="110"/>
-      <c r="J72" s="111"/>
+      <c r="I72" s="117"/>
+      <c r="J72" s="118"/>
       <c r="K72" s="44"/>
       <c r="L72" s="44"/>
-      <c r="M72" s="106"/>
+      <c r="M72" s="113"/>
       <c r="N72" s="44"/>
       <c r="O72" s="69" t="s">
         <v>454</v>
@@ -15813,20 +16117,20 @@
       <c r="A73" s="44"/>
       <c r="B73" s="44"/>
       <c r="C73" s="44"/>
-      <c r="D73" s="106"/>
+      <c r="D73" s="113"/>
       <c r="E73" s="67"/>
       <c r="F73" s="68" t="s">
         <v>357</v>
       </c>
       <c r="G73" s="44"/>
       <c r="H73" s="44"/>
-      <c r="I73" s="110"/>
-      <c r="J73" s="111"/>
+      <c r="I73" s="117"/>
+      <c r="J73" s="118"/>
       <c r="K73" s="69" t="s">
         <v>455</v>
       </c>
       <c r="L73" s="44"/>
-      <c r="M73" s="106"/>
+      <c r="M73" s="113"/>
       <c r="N73" s="44"/>
       <c r="O73" s="69" t="s">
         <v>456</v>
@@ -15858,16 +16162,16 @@
       <c r="A74" s="44"/>
       <c r="B74" s="44"/>
       <c r="C74" s="44"/>
-      <c r="D74" s="106"/>
+      <c r="D74" s="113"/>
       <c r="E74" s="67"/>
       <c r="F74" s="67"/>
       <c r="G74" s="44"/>
       <c r="H74" s="44"/>
-      <c r="I74" s="110"/>
-      <c r="J74" s="111"/>
+      <c r="I74" s="117"/>
+      <c r="J74" s="118"/>
       <c r="K74" s="44"/>
       <c r="L74" s="44"/>
-      <c r="M74" s="106"/>
+      <c r="M74" s="113"/>
       <c r="N74" s="44"/>
       <c r="O74" s="69" t="s">
         <v>355</v>
@@ -15897,8 +16201,8 @@
       <c r="A75" s="44"/>
       <c r="B75" s="44"/>
       <c r="C75" s="44"/>
-      <c r="D75" s="106"/>
-      <c r="E75" s="112" t="s">
+      <c r="D75" s="113"/>
+      <c r="E75" s="119" t="s">
         <v>458</v>
       </c>
       <c r="F75" s="72" t="s">
@@ -15906,11 +16210,11 @@
       </c>
       <c r="G75" s="44"/>
       <c r="H75" s="44"/>
-      <c r="I75" s="110"/>
-      <c r="J75" s="111"/>
+      <c r="I75" s="117"/>
+      <c r="J75" s="118"/>
       <c r="K75" s="44"/>
       <c r="L75" s="44"/>
-      <c r="M75" s="106"/>
+      <c r="M75" s="113"/>
       <c r="N75" s="44"/>
       <c r="O75" s="69" t="s">
         <v>362</v>
@@ -15940,18 +16244,18 @@
       <c r="A76" s="44"/>
       <c r="B76" s="44"/>
       <c r="C76" s="44"/>
-      <c r="D76" s="106"/>
-      <c r="E76" s="112"/>
+      <c r="D76" s="113"/>
+      <c r="E76" s="119"/>
       <c r="F76" s="68" t="s">
         <v>366</v>
       </c>
       <c r="G76" s="44"/>
       <c r="H76" s="44"/>
-      <c r="I76" s="110"/>
-      <c r="J76" s="111"/>
+      <c r="I76" s="117"/>
+      <c r="J76" s="118"/>
       <c r="K76" s="44"/>
       <c r="L76" s="44"/>
-      <c r="M76" s="106"/>
+      <c r="M76" s="113"/>
       <c r="N76" s="44"/>
       <c r="O76" s="69" t="s">
         <v>366</v>
@@ -15981,16 +16285,16 @@
       <c r="A77" s="44"/>
       <c r="B77" s="44"/>
       <c r="C77" s="44"/>
-      <c r="D77" s="106"/>
+      <c r="D77" s="113"/>
       <c r="E77" s="67"/>
       <c r="F77" s="67"/>
       <c r="G77" s="44"/>
       <c r="H77" s="44"/>
       <c r="I77" s="73"/>
-      <c r="J77" s="111"/>
+      <c r="J77" s="118"/>
       <c r="K77" s="44"/>
       <c r="L77" s="44"/>
-      <c r="M77" s="106"/>
+      <c r="M77" s="113"/>
       <c r="N77" s="44"/>
       <c r="O77" s="44"/>
       <c r="P77" s="44"/>
@@ -16016,7 +16320,7 @@
       <c r="A78" s="44"/>
       <c r="B78" s="44"/>
       <c r="C78" s="44"/>
-      <c r="D78" s="106"/>
+      <c r="D78" s="113"/>
       <c r="E78" s="68" t="s">
         <v>460</v>
       </c>
@@ -16028,7 +16332,7 @@
       <c r="I78" s="74" t="s">
         <v>462</v>
       </c>
-      <c r="J78" s="111"/>
+      <c r="J78" s="118"/>
       <c r="K78" s="69" t="s">
         <v>463</v>
       </c>
@@ -16069,13 +16373,13 @@
       <c r="A79" s="44"/>
       <c r="B79" s="44"/>
       <c r="C79" s="44"/>
-      <c r="D79" s="106"/>
+      <c r="D79" s="113"/>
       <c r="E79" s="67"/>
       <c r="F79" s="67"/>
       <c r="G79" s="44"/>
       <c r="H79" s="44"/>
       <c r="I79" s="73"/>
-      <c r="J79" s="111"/>
+      <c r="J79" s="118"/>
       <c r="K79" s="44"/>
       <c r="L79" s="44"/>
       <c r="M79" s="69" t="s">
@@ -16114,22 +16418,22 @@
       <c r="A80" s="44"/>
       <c r="B80" s="44"/>
       <c r="C80" s="44"/>
-      <c r="D80" s="106"/>
+      <c r="D80" s="113"/>
       <c r="E80" s="67"/>
       <c r="F80" s="67"/>
       <c r="G80" s="44"/>
       <c r="H80" s="44"/>
       <c r="I80" s="73"/>
-      <c r="J80" s="111"/>
+      <c r="J80" s="118"/>
       <c r="K80" s="44"/>
       <c r="L80" s="44"/>
       <c r="M80" s="69" t="s">
         <v>471</v>
       </c>
-      <c r="N80" s="105" t="s">
+      <c r="N80" s="112" t="s">
         <v>472</v>
       </c>
-      <c r="O80" s="105"/>
+      <c r="O80" s="112"/>
       <c r="P80" s="44"/>
       <c r="Q80" s="44"/>
       <c r="R80" s="44"/>
@@ -16153,17 +16457,17 @@
       <c r="A81" s="44"/>
       <c r="B81" s="44"/>
       <c r="C81" s="44"/>
-      <c r="D81" s="106"/>
-      <c r="E81" s="104" t="s">
+      <c r="D81" s="113"/>
+      <c r="E81" s="111" t="s">
         <v>473</v>
       </c>
-      <c r="F81" s="104"/>
+      <c r="F81" s="111"/>
       <c r="G81" s="44"/>
       <c r="H81" s="44"/>
       <c r="I81" s="74" t="s">
         <v>375</v>
       </c>
-      <c r="J81" s="111"/>
+      <c r="J81" s="118"/>
       <c r="K81" s="44"/>
       <c r="L81" s="44"/>
       <c r="M81" s="71" t="s">
@@ -16207,10 +16511,10 @@
       <c r="J82" s="44"/>
       <c r="K82" s="44"/>
       <c r="L82" s="44"/>
-      <c r="M82" s="105" t="s">
+      <c r="M82" s="112" t="s">
         <v>476</v>
       </c>
-      <c r="N82" s="105"/>
+      <c r="N82" s="112"/>
       <c r="O82" s="44"/>
       <c r="P82" s="44"/>
       <c r="Q82" s="44"/>
@@ -16235,7 +16539,7 @@
       <c r="A83" s="44"/>
       <c r="B83" s="44"/>
       <c r="C83" s="44"/>
-      <c r="D83" s="106" t="s">
+      <c r="D83" s="113" t="s">
         <v>477</v>
       </c>
       <c r="E83" s="69" t="s">
@@ -16274,7 +16578,7 @@
       <c r="A84" s="44"/>
       <c r="B84" s="44"/>
       <c r="C84" s="44"/>
-      <c r="D84" s="106"/>
+      <c r="D84" s="113"/>
       <c r="E84" s="71" t="s">
         <v>479</v>
       </c>
@@ -16311,7 +16615,7 @@
       <c r="A85" s="44"/>
       <c r="B85" s="44"/>
       <c r="C85" s="44"/>
-      <c r="D85" s="106"/>
+      <c r="D85" s="113"/>
       <c r="E85" s="69" t="s">
         <v>480</v>
       </c>
@@ -16358,7 +16662,7 @@
       <c r="A86" s="44"/>
       <c r="B86" s="44"/>
       <c r="C86" s="44"/>
-      <c r="D86" s="106"/>
+      <c r="D86" s="113"/>
       <c r="E86" s="71" t="s">
         <v>484</v>
       </c>
@@ -48430,7 +48734,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:R66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
@@ -49075,10 +49379,10 @@
       <c r="C49" s="38" t="s">
         <v>563</v>
       </c>
-      <c r="O49" s="116"/>
-      <c r="P49" s="116"/>
-      <c r="Q49" s="116"/>
-      <c r="R49" s="116"/>
+      <c r="O49" s="102"/>
+      <c r="P49" s="102"/>
+      <c r="Q49" s="102"/>
+      <c r="R49" s="102"/>
     </row>
     <row r="50" spans="2:18">
       <c r="C50" t="s">
@@ -49086,7 +49390,7 @@
       </c>
     </row>
     <row r="52" spans="2:18">
-      <c r="B52" s="117"/>
+      <c r="B52" s="103"/>
     </row>
     <row r="53" spans="2:18">
       <c r="Q53" s="101"/>
@@ -49142,7 +49446,7 @@
       <c r="E57" s="76"/>
       <c r="F57" s="76"/>
       <c r="G57" s="77"/>
-      <c r="H57" s="118"/>
+      <c r="H57" s="104"/>
       <c r="I57" s="76"/>
       <c r="J57" s="76"/>
       <c r="K57" s="76"/>
@@ -49288,6 +49592,1286 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AG33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q30" sqref="Q30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="9" width="3.625" customWidth="1"/>
+    <col min="10" max="10" width="3.75" customWidth="1"/>
+    <col min="11" max="33" width="3.625" customWidth="1"/>
+    <col min="40" max="40" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33">
+      <c r="A1" s="105"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="105"/>
+      <c r="N1" s="105"/>
+      <c r="O1" s="105"/>
+      <c r="P1" s="105"/>
+      <c r="Q1" s="105"/>
+      <c r="R1" s="105"/>
+      <c r="S1" s="105"/>
+      <c r="T1" s="105"/>
+      <c r="U1" s="105"/>
+      <c r="V1" s="105"/>
+      <c r="W1" s="105"/>
+      <c r="X1" s="105"/>
+      <c r="Y1" s="105"/>
+      <c r="Z1" s="105"/>
+      <c r="AA1" s="105"/>
+      <c r="AB1" s="105"/>
+      <c r="AC1" s="105"/>
+      <c r="AD1" s="105"/>
+      <c r="AE1" s="105"/>
+      <c r="AF1" s="105"/>
+      <c r="AG1" s="105"/>
+    </row>
+    <row r="2" spans="1:33">
+      <c r="A2" s="105"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="105">
+        <v>0</v>
+      </c>
+      <c r="K2" s="106">
+        <v>1</v>
+      </c>
+      <c r="L2" s="106">
+        <v>1</v>
+      </c>
+      <c r="M2" s="106">
+        <v>1</v>
+      </c>
+      <c r="N2" s="106">
+        <v>1</v>
+      </c>
+      <c r="O2" s="106">
+        <v>1</v>
+      </c>
+      <c r="P2" s="106">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="106">
+        <v>1</v>
+      </c>
+      <c r="R2" s="106">
+        <v>1</v>
+      </c>
+      <c r="S2" s="106">
+        <v>1</v>
+      </c>
+      <c r="T2" s="105"/>
+      <c r="U2" s="105"/>
+      <c r="V2" s="105"/>
+      <c r="W2" s="105"/>
+      <c r="X2" s="105"/>
+      <c r="Y2" s="105"/>
+      <c r="Z2" s="105"/>
+      <c r="AA2" s="105"/>
+      <c r="AB2" s="105"/>
+      <c r="AC2" s="105"/>
+      <c r="AD2" s="105"/>
+      <c r="AE2" s="105"/>
+      <c r="AF2" s="105"/>
+      <c r="AG2" s="105"/>
+    </row>
+    <row r="3" spans="1:33">
+      <c r="A3" s="105"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="105">
+        <v>0</v>
+      </c>
+      <c r="K3" s="106">
+        <v>1</v>
+      </c>
+      <c r="L3" s="106">
+        <v>1</v>
+      </c>
+      <c r="M3" s="105">
+        <v>0</v>
+      </c>
+      <c r="N3" s="105"/>
+      <c r="O3" s="105"/>
+      <c r="P3" s="105"/>
+      <c r="Q3" s="105"/>
+      <c r="R3" s="106">
+        <v>1</v>
+      </c>
+      <c r="S3" s="106">
+        <v>1</v>
+      </c>
+      <c r="T3" s="106">
+        <v>1</v>
+      </c>
+      <c r="U3" s="106">
+        <v>1</v>
+      </c>
+      <c r="V3" s="105"/>
+      <c r="W3" s="105"/>
+      <c r="X3" s="105"/>
+      <c r="Y3" s="105"/>
+      <c r="Z3" s="105"/>
+      <c r="AA3" s="105"/>
+      <c r="AB3" s="105"/>
+      <c r="AC3" s="105"/>
+      <c r="AD3" s="105"/>
+      <c r="AE3" s="105"/>
+      <c r="AF3" s="105"/>
+      <c r="AG3" s="105"/>
+    </row>
+    <row r="4" spans="1:33">
+      <c r="A4" s="105"/>
+      <c r="B4" s="105"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="105"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="105"/>
+      <c r="J4" s="106">
+        <v>1</v>
+      </c>
+      <c r="K4" s="107">
+        <v>1</v>
+      </c>
+      <c r="L4" s="105">
+        <v>0</v>
+      </c>
+      <c r="M4" s="105">
+        <v>0</v>
+      </c>
+      <c r="N4" s="105"/>
+      <c r="O4" s="105"/>
+      <c r="P4" s="105"/>
+      <c r="Q4" s="105"/>
+      <c r="R4" s="105"/>
+      <c r="S4" s="105"/>
+      <c r="T4" s="106">
+        <v>1</v>
+      </c>
+      <c r="U4" s="106">
+        <v>1</v>
+      </c>
+      <c r="V4" s="106">
+        <v>1</v>
+      </c>
+      <c r="W4" s="105"/>
+      <c r="X4" s="105"/>
+      <c r="Y4" s="105"/>
+      <c r="Z4" s="105"/>
+      <c r="AA4" s="105"/>
+      <c r="AB4" s="105"/>
+      <c r="AC4" s="105"/>
+      <c r="AD4" s="105"/>
+      <c r="AE4" s="105"/>
+      <c r="AF4" s="105"/>
+      <c r="AG4" s="105"/>
+    </row>
+    <row r="5" spans="1:33">
+      <c r="A5" s="105"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="105"/>
+      <c r="H5" s="105"/>
+      <c r="I5" s="105"/>
+      <c r="J5" s="106">
+        <v>1</v>
+      </c>
+      <c r="K5" s="105">
+        <v>0</v>
+      </c>
+      <c r="L5" s="105">
+        <v>0</v>
+      </c>
+      <c r="M5" s="105">
+        <v>0</v>
+      </c>
+      <c r="N5" s="105"/>
+      <c r="O5" s="105"/>
+      <c r="P5" s="105"/>
+      <c r="Q5" s="105"/>
+      <c r="R5" s="105"/>
+      <c r="S5" s="105"/>
+      <c r="T5" s="105"/>
+      <c r="U5" s="105"/>
+      <c r="V5" s="106">
+        <v>1</v>
+      </c>
+      <c r="W5" s="105"/>
+      <c r="X5" s="105"/>
+      <c r="Y5" s="105"/>
+      <c r="Z5" s="105"/>
+      <c r="AA5" s="105"/>
+      <c r="AB5" s="105"/>
+      <c r="AC5" s="105"/>
+      <c r="AD5" s="105"/>
+      <c r="AE5" s="105"/>
+      <c r="AF5" s="105"/>
+      <c r="AG5" s="105"/>
+    </row>
+    <row r="6" spans="1:33">
+      <c r="A6" s="105"/>
+      <c r="B6" s="105"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="105"/>
+      <c r="H6" s="105"/>
+      <c r="I6" s="105"/>
+      <c r="J6" s="106">
+        <v>1</v>
+      </c>
+      <c r="K6" s="105">
+        <v>0</v>
+      </c>
+      <c r="L6" s="105">
+        <v>0</v>
+      </c>
+      <c r="M6" s="105">
+        <v>0</v>
+      </c>
+      <c r="N6" s="105"/>
+      <c r="O6" s="105"/>
+      <c r="P6" s="105"/>
+      <c r="Q6" s="105"/>
+      <c r="R6" s="105"/>
+      <c r="S6" s="105"/>
+      <c r="T6" s="105"/>
+      <c r="U6" s="105"/>
+      <c r="V6" s="106">
+        <v>1</v>
+      </c>
+      <c r="W6" s="105"/>
+      <c r="X6" s="105"/>
+      <c r="Y6" s="105"/>
+      <c r="Z6" s="105"/>
+      <c r="AA6" s="105"/>
+      <c r="AB6" s="105"/>
+      <c r="AC6" s="105"/>
+      <c r="AD6" s="105"/>
+      <c r="AE6" s="105"/>
+      <c r="AF6" s="105"/>
+      <c r="AG6" s="105"/>
+    </row>
+    <row r="7" spans="1:33">
+      <c r="A7" s="105"/>
+      <c r="B7" s="105"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="105"/>
+      <c r="I7" s="105"/>
+      <c r="J7" s="106">
+        <v>1</v>
+      </c>
+      <c r="K7" s="105">
+        <v>0</v>
+      </c>
+      <c r="L7" s="105">
+        <v>0</v>
+      </c>
+      <c r="M7" s="105">
+        <v>0</v>
+      </c>
+      <c r="N7" s="105"/>
+      <c r="O7" s="105"/>
+      <c r="P7" s="105"/>
+      <c r="Q7" s="105"/>
+      <c r="R7" s="105"/>
+      <c r="S7" s="105"/>
+      <c r="T7" s="105"/>
+      <c r="U7" s="105"/>
+      <c r="V7" s="106">
+        <v>1</v>
+      </c>
+      <c r="W7" s="105"/>
+      <c r="X7" s="105"/>
+      <c r="Y7" s="105"/>
+      <c r="Z7" s="105"/>
+      <c r="AA7" s="105"/>
+      <c r="AB7" s="105"/>
+      <c r="AC7" s="105"/>
+      <c r="AD7" s="105"/>
+      <c r="AE7" s="105"/>
+      <c r="AF7" s="105"/>
+      <c r="AG7" s="105"/>
+    </row>
+    <row r="8" spans="1:33">
+      <c r="A8" s="105"/>
+      <c r="B8" s="105"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="105"/>
+      <c r="J8" s="106">
+        <v>1</v>
+      </c>
+      <c r="K8" s="105">
+        <v>0</v>
+      </c>
+      <c r="L8" s="105">
+        <v>0</v>
+      </c>
+      <c r="M8" s="105">
+        <v>0</v>
+      </c>
+      <c r="N8" s="105"/>
+      <c r="O8" s="105"/>
+      <c r="P8" s="105"/>
+      <c r="Q8" s="105"/>
+      <c r="R8" s="105"/>
+      <c r="S8" s="105"/>
+      <c r="T8" s="105"/>
+      <c r="U8" s="105"/>
+      <c r="V8" s="106">
+        <v>1</v>
+      </c>
+      <c r="W8" s="105"/>
+      <c r="X8" s="105"/>
+      <c r="Y8" s="105"/>
+      <c r="Z8" s="105"/>
+      <c r="AA8" s="105"/>
+      <c r="AB8" s="105"/>
+      <c r="AC8" s="105"/>
+      <c r="AD8" s="105"/>
+      <c r="AE8" s="105"/>
+      <c r="AF8" s="105"/>
+      <c r="AG8" s="105"/>
+    </row>
+    <row r="9" spans="1:33">
+      <c r="A9" s="105"/>
+      <c r="B9" s="105"/>
+      <c r="C9" s="105"/>
+      <c r="D9" s="105"/>
+      <c r="E9" s="105"/>
+      <c r="F9" s="105"/>
+      <c r="G9" s="105"/>
+      <c r="H9" s="105"/>
+      <c r="I9" s="105"/>
+      <c r="J9" s="106">
+        <v>1</v>
+      </c>
+      <c r="K9" s="105">
+        <v>0</v>
+      </c>
+      <c r="L9" s="105">
+        <v>0</v>
+      </c>
+      <c r="M9" s="105">
+        <v>0</v>
+      </c>
+      <c r="N9" s="105"/>
+      <c r="O9" s="105"/>
+      <c r="P9" s="105"/>
+      <c r="Q9" s="105"/>
+      <c r="R9" s="105"/>
+      <c r="S9" s="105"/>
+      <c r="T9" s="105"/>
+      <c r="U9" s="105"/>
+      <c r="V9" s="106">
+        <v>1</v>
+      </c>
+      <c r="W9" s="105"/>
+      <c r="X9" s="105"/>
+      <c r="Y9" s="105"/>
+      <c r="Z9" s="105"/>
+      <c r="AA9" s="105"/>
+      <c r="AB9" s="105"/>
+      <c r="AC9" s="105"/>
+      <c r="AD9" s="105"/>
+      <c r="AE9" s="105"/>
+      <c r="AF9" s="105"/>
+      <c r="AG9" s="105"/>
+    </row>
+    <row r="10" spans="1:33">
+      <c r="A10" s="105"/>
+      <c r="B10" s="105"/>
+      <c r="C10" s="105"/>
+      <c r="D10" s="105"/>
+      <c r="E10" s="105"/>
+      <c r="F10" s="105"/>
+      <c r="G10" s="105"/>
+      <c r="H10" s="105"/>
+      <c r="I10" s="105"/>
+      <c r="J10" s="106">
+        <v>1</v>
+      </c>
+      <c r="K10" s="105">
+        <v>0</v>
+      </c>
+      <c r="L10" s="105">
+        <v>0</v>
+      </c>
+      <c r="M10" s="105">
+        <v>0</v>
+      </c>
+      <c r="N10" s="105"/>
+      <c r="O10" s="105"/>
+      <c r="P10" s="105"/>
+      <c r="Q10" s="105"/>
+      <c r="R10" s="105"/>
+      <c r="S10" s="105"/>
+      <c r="T10" s="105"/>
+      <c r="U10" s="105"/>
+      <c r="V10" s="106">
+        <v>1</v>
+      </c>
+      <c r="W10" s="105"/>
+      <c r="X10" s="105"/>
+      <c r="Y10" s="105"/>
+      <c r="Z10" s="105"/>
+      <c r="AA10" s="105"/>
+      <c r="AB10" s="105"/>
+      <c r="AC10" s="105"/>
+      <c r="AD10" s="105"/>
+      <c r="AE10" s="105"/>
+      <c r="AF10" s="105"/>
+      <c r="AG10" s="105"/>
+    </row>
+    <row r="11" spans="1:33">
+      <c r="A11" s="105"/>
+      <c r="B11" s="105"/>
+      <c r="C11" s="105"/>
+      <c r="D11" s="105"/>
+      <c r="E11" s="105"/>
+      <c r="F11" s="105"/>
+      <c r="G11" s="105"/>
+      <c r="H11" s="105"/>
+      <c r="I11" s="105"/>
+      <c r="J11" s="106">
+        <v>1</v>
+      </c>
+      <c r="K11" s="105">
+        <v>0</v>
+      </c>
+      <c r="L11" s="105">
+        <v>0</v>
+      </c>
+      <c r="M11" s="105">
+        <v>0</v>
+      </c>
+      <c r="N11" s="105"/>
+      <c r="O11" s="105"/>
+      <c r="P11" s="105"/>
+      <c r="Q11" s="105"/>
+      <c r="R11" s="105"/>
+      <c r="S11" s="105"/>
+      <c r="T11" s="105"/>
+      <c r="U11" s="105"/>
+      <c r="V11" s="106">
+        <v>1</v>
+      </c>
+      <c r="W11" s="105"/>
+      <c r="X11" s="105"/>
+      <c r="Y11" s="105"/>
+      <c r="Z11" s="105"/>
+      <c r="AA11" s="105"/>
+      <c r="AB11" s="105"/>
+      <c r="AC11" s="105"/>
+      <c r="AD11" s="105"/>
+      <c r="AE11" s="105"/>
+      <c r="AF11" s="105"/>
+      <c r="AG11" s="105"/>
+    </row>
+    <row r="12" spans="1:33">
+      <c r="A12" s="105"/>
+      <c r="B12" s="105"/>
+      <c r="C12" s="105"/>
+      <c r="D12" s="105"/>
+      <c r="E12" s="105"/>
+      <c r="F12" s="105"/>
+      <c r="G12" s="105"/>
+      <c r="H12" s="105"/>
+      <c r="I12" s="105"/>
+      <c r="J12" s="106">
+        <v>1</v>
+      </c>
+      <c r="K12" s="105">
+        <v>0</v>
+      </c>
+      <c r="L12" s="105">
+        <v>0</v>
+      </c>
+      <c r="M12" s="105">
+        <v>0</v>
+      </c>
+      <c r="N12" s="105"/>
+      <c r="O12" s="105"/>
+      <c r="P12" s="105"/>
+      <c r="Q12" s="105"/>
+      <c r="R12" s="105"/>
+      <c r="S12" s="105"/>
+      <c r="T12" s="105"/>
+      <c r="U12" s="105"/>
+      <c r="V12" s="106">
+        <v>1</v>
+      </c>
+      <c r="W12" s="105"/>
+      <c r="X12" s="105"/>
+      <c r="Y12" s="105"/>
+      <c r="Z12" s="105"/>
+      <c r="AA12" s="105"/>
+      <c r="AB12" s="105"/>
+      <c r="AC12" s="105"/>
+      <c r="AD12" s="105"/>
+      <c r="AE12" s="105"/>
+      <c r="AF12" s="105"/>
+      <c r="AG12" s="105"/>
+    </row>
+    <row r="13" spans="1:33">
+      <c r="A13" s="105"/>
+      <c r="B13" s="105"/>
+      <c r="C13" s="105"/>
+      <c r="D13" s="105"/>
+      <c r="E13" s="105"/>
+      <c r="F13" s="105"/>
+      <c r="G13" s="105"/>
+      <c r="H13" s="105"/>
+      <c r="I13" s="105"/>
+      <c r="J13" s="106">
+        <v>1</v>
+      </c>
+      <c r="K13" s="105">
+        <v>0</v>
+      </c>
+      <c r="L13" s="105">
+        <v>0</v>
+      </c>
+      <c r="M13" s="105">
+        <v>0</v>
+      </c>
+      <c r="N13" s="105"/>
+      <c r="O13" s="105"/>
+      <c r="P13" s="105"/>
+      <c r="Q13" s="105"/>
+      <c r="R13" s="105"/>
+      <c r="S13" s="105"/>
+      <c r="T13" s="105"/>
+      <c r="U13" s="105"/>
+      <c r="V13" s="106">
+        <v>1</v>
+      </c>
+      <c r="W13" s="105"/>
+      <c r="X13" s="105"/>
+      <c r="Y13" s="105"/>
+      <c r="Z13" s="105"/>
+      <c r="AA13" s="105"/>
+      <c r="AB13" s="105"/>
+      <c r="AC13" s="105"/>
+      <c r="AD13" s="105"/>
+      <c r="AE13" s="105"/>
+      <c r="AF13" s="105"/>
+      <c r="AG13" s="105"/>
+    </row>
+    <row r="14" spans="1:33">
+      <c r="A14" s="105"/>
+      <c r="B14" s="105"/>
+      <c r="C14" s="105"/>
+      <c r="D14" s="105"/>
+      <c r="E14" s="105"/>
+      <c r="F14" s="105"/>
+      <c r="G14" s="105"/>
+      <c r="H14" s="105"/>
+      <c r="I14" s="105"/>
+      <c r="J14" s="106">
+        <v>1</v>
+      </c>
+      <c r="K14" s="105">
+        <v>0</v>
+      </c>
+      <c r="L14" s="105">
+        <v>0</v>
+      </c>
+      <c r="M14" s="105">
+        <v>0</v>
+      </c>
+      <c r="N14" s="105"/>
+      <c r="O14" s="105"/>
+      <c r="P14" s="105"/>
+      <c r="Q14" s="105"/>
+      <c r="R14" s="105"/>
+      <c r="S14" s="105"/>
+      <c r="T14" s="105"/>
+      <c r="U14" s="105"/>
+      <c r="V14" s="106">
+        <v>1</v>
+      </c>
+      <c r="W14" s="105"/>
+      <c r="X14" s="105"/>
+      <c r="Y14" s="105"/>
+      <c r="Z14" s="105"/>
+      <c r="AA14" s="105"/>
+      <c r="AB14" s="105"/>
+      <c r="AC14" s="105"/>
+      <c r="AD14" s="105"/>
+      <c r="AE14" s="105"/>
+      <c r="AF14" s="105"/>
+      <c r="AG14" s="105"/>
+    </row>
+    <row r="15" spans="1:33">
+      <c r="A15" s="105"/>
+      <c r="B15" s="105"/>
+      <c r="C15" s="105"/>
+      <c r="D15" s="105"/>
+      <c r="E15" s="105"/>
+      <c r="F15" s="105"/>
+      <c r="G15" s="105"/>
+      <c r="H15" s="105"/>
+      <c r="I15" s="105"/>
+      <c r="J15" s="106">
+        <v>1</v>
+      </c>
+      <c r="K15" s="105">
+        <v>0</v>
+      </c>
+      <c r="L15" s="105">
+        <v>0</v>
+      </c>
+      <c r="M15" s="105">
+        <v>0</v>
+      </c>
+      <c r="N15" s="105"/>
+      <c r="O15" s="105"/>
+      <c r="P15" s="105"/>
+      <c r="Q15" s="105"/>
+      <c r="R15" s="105"/>
+      <c r="S15" s="105"/>
+      <c r="T15" s="105"/>
+      <c r="U15" s="105"/>
+      <c r="V15" s="106">
+        <v>1</v>
+      </c>
+      <c r="W15" s="105"/>
+      <c r="X15" s="105"/>
+      <c r="Y15" s="105"/>
+      <c r="Z15" s="105"/>
+      <c r="AA15" s="105"/>
+      <c r="AB15" s="105"/>
+      <c r="AC15" s="105"/>
+      <c r="AD15" s="105"/>
+      <c r="AE15" s="105"/>
+      <c r="AF15" s="105"/>
+      <c r="AG15" s="105"/>
+    </row>
+    <row r="16" spans="1:33">
+      <c r="A16" s="105"/>
+      <c r="B16" s="105"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="105"/>
+      <c r="E16" s="105"/>
+      <c r="F16" s="105"/>
+      <c r="G16" s="105"/>
+      <c r="H16" s="105"/>
+      <c r="I16" s="105"/>
+      <c r="J16" s="105">
+        <v>0</v>
+      </c>
+      <c r="K16" s="106">
+        <v>1</v>
+      </c>
+      <c r="L16" s="105">
+        <v>0</v>
+      </c>
+      <c r="M16" s="105">
+        <v>0</v>
+      </c>
+      <c r="N16" s="105"/>
+      <c r="O16" s="105"/>
+      <c r="P16" s="105"/>
+      <c r="Q16" s="105"/>
+      <c r="R16" s="105"/>
+      <c r="S16" s="105"/>
+      <c r="T16" s="105"/>
+      <c r="U16" s="106">
+        <v>1</v>
+      </c>
+      <c r="V16" s="106">
+        <v>1</v>
+      </c>
+      <c r="W16" s="105"/>
+      <c r="X16" s="105"/>
+      <c r="Y16" s="105"/>
+      <c r="Z16" s="105"/>
+      <c r="AA16" s="105"/>
+      <c r="AB16" s="105"/>
+      <c r="AC16" s="105"/>
+      <c r="AD16" s="105"/>
+      <c r="AE16" s="105"/>
+      <c r="AF16" s="105"/>
+      <c r="AG16" s="105"/>
+    </row>
+    <row r="17" spans="1:33">
+      <c r="A17" s="105"/>
+      <c r="B17" s="105"/>
+      <c r="C17" s="105"/>
+      <c r="D17" s="105"/>
+      <c r="E17" s="105"/>
+      <c r="F17" s="105"/>
+      <c r="G17" s="105"/>
+      <c r="H17" s="105"/>
+      <c r="I17" s="105"/>
+      <c r="J17" s="105">
+        <v>0</v>
+      </c>
+      <c r="K17" s="106">
+        <v>1</v>
+      </c>
+      <c r="L17" s="106">
+        <v>1</v>
+      </c>
+      <c r="M17" s="105">
+        <v>0</v>
+      </c>
+      <c r="N17" s="105"/>
+      <c r="O17" s="105"/>
+      <c r="P17" s="105"/>
+      <c r="Q17" s="105"/>
+      <c r="R17" s="105"/>
+      <c r="S17" s="105"/>
+      <c r="T17" s="105"/>
+      <c r="U17" s="106">
+        <v>1</v>
+      </c>
+      <c r="V17" s="105">
+        <v>0</v>
+      </c>
+      <c r="W17" s="105"/>
+      <c r="X17" s="105"/>
+      <c r="Y17" s="105"/>
+      <c r="Z17" s="105"/>
+      <c r="AA17" s="105"/>
+      <c r="AB17" s="105"/>
+      <c r="AC17" s="105"/>
+      <c r="AD17" s="105"/>
+      <c r="AE17" s="105"/>
+      <c r="AF17" s="105"/>
+      <c r="AG17" s="105"/>
+    </row>
+    <row r="18" spans="1:33">
+      <c r="A18" s="105"/>
+      <c r="B18" s="105"/>
+      <c r="C18" s="105"/>
+      <c r="D18" s="105"/>
+      <c r="E18" s="105"/>
+      <c r="F18" s="105"/>
+      <c r="G18" s="105"/>
+      <c r="H18" s="105"/>
+      <c r="I18" s="105"/>
+      <c r="J18" s="105">
+        <v>0</v>
+      </c>
+      <c r="K18" s="105">
+        <v>0</v>
+      </c>
+      <c r="L18" s="106">
+        <v>1</v>
+      </c>
+      <c r="M18" s="105">
+        <v>0</v>
+      </c>
+      <c r="N18" s="105"/>
+      <c r="O18" s="105"/>
+      <c r="P18" s="105"/>
+      <c r="Q18" s="105"/>
+      <c r="R18" s="105"/>
+      <c r="S18" s="105"/>
+      <c r="T18" s="106">
+        <v>1</v>
+      </c>
+      <c r="U18" s="106">
+        <v>1</v>
+      </c>
+      <c r="V18" s="105">
+        <v>0</v>
+      </c>
+      <c r="W18" s="105"/>
+      <c r="X18" s="105"/>
+      <c r="Y18" s="108"/>
+      <c r="Z18" s="108"/>
+      <c r="AA18" s="108"/>
+      <c r="AB18" s="105"/>
+      <c r="AC18" s="105"/>
+      <c r="AD18" s="105"/>
+      <c r="AE18" s="105"/>
+      <c r="AF18" s="105"/>
+      <c r="AG18" s="105"/>
+    </row>
+    <row r="19" spans="1:33">
+      <c r="A19" s="105"/>
+      <c r="B19" s="105"/>
+      <c r="C19" s="105"/>
+      <c r="D19" s="105"/>
+      <c r="E19" s="105"/>
+      <c r="F19" s="105"/>
+      <c r="G19" s="105"/>
+      <c r="H19" s="105"/>
+      <c r="I19" s="105"/>
+      <c r="J19" s="105"/>
+      <c r="K19" s="105">
+        <v>0</v>
+      </c>
+      <c r="L19" s="105">
+        <v>0</v>
+      </c>
+      <c r="M19" s="106">
+        <v>1</v>
+      </c>
+      <c r="N19" s="105">
+        <v>0</v>
+      </c>
+      <c r="O19" s="105">
+        <v>0</v>
+      </c>
+      <c r="P19" s="105">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="105">
+        <v>0</v>
+      </c>
+      <c r="R19" s="105">
+        <v>0</v>
+      </c>
+      <c r="S19" s="106">
+        <v>1</v>
+      </c>
+      <c r="T19" s="106">
+        <v>1</v>
+      </c>
+      <c r="U19" s="105">
+        <v>0</v>
+      </c>
+      <c r="V19" s="105"/>
+      <c r="W19" s="105"/>
+      <c r="X19" s="105"/>
+      <c r="Y19" s="108"/>
+      <c r="Z19" s="108"/>
+      <c r="AA19" s="108"/>
+      <c r="AB19" s="105"/>
+      <c r="AC19" s="105"/>
+      <c r="AD19" s="105"/>
+      <c r="AE19" s="105"/>
+      <c r="AF19" s="105"/>
+      <c r="AG19" s="105"/>
+    </row>
+    <row r="20" spans="1:33">
+      <c r="A20" s="105"/>
+      <c r="B20" s="105"/>
+      <c r="C20" s="105"/>
+      <c r="D20" s="105"/>
+      <c r="E20" s="105"/>
+      <c r="F20" s="105"/>
+      <c r="G20" s="105"/>
+      <c r="H20" s="105"/>
+      <c r="I20" s="105"/>
+      <c r="J20" s="105"/>
+      <c r="K20" s="105"/>
+      <c r="L20" s="105">
+        <v>0</v>
+      </c>
+      <c r="M20" s="106">
+        <v>1</v>
+      </c>
+      <c r="N20" s="105">
+        <v>0</v>
+      </c>
+      <c r="O20" s="105">
+        <v>0</v>
+      </c>
+      <c r="P20" s="105">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="105">
+        <v>0</v>
+      </c>
+      <c r="R20" s="106">
+        <v>1</v>
+      </c>
+      <c r="S20" s="105">
+        <v>0</v>
+      </c>
+      <c r="T20" s="105">
+        <v>0</v>
+      </c>
+      <c r="U20" s="105"/>
+      <c r="V20" s="105"/>
+      <c r="W20" s="105"/>
+      <c r="X20" s="105"/>
+      <c r="Y20" s="108"/>
+      <c r="Z20" s="108"/>
+      <c r="AA20" s="108"/>
+      <c r="AB20" s="105"/>
+      <c r="AC20" s="105"/>
+      <c r="AD20" s="105"/>
+      <c r="AE20" s="105"/>
+      <c r="AF20" s="105"/>
+      <c r="AG20" s="105"/>
+    </row>
+    <row r="21" spans="1:33">
+      <c r="A21" s="105"/>
+      <c r="B21" s="105"/>
+      <c r="C21" s="105"/>
+      <c r="D21" s="105"/>
+      <c r="E21" s="105"/>
+      <c r="F21" s="105"/>
+      <c r="G21" s="105"/>
+      <c r="H21" s="105"/>
+      <c r="I21" s="105"/>
+      <c r="J21" s="105"/>
+      <c r="K21" s="105"/>
+      <c r="L21" s="105"/>
+      <c r="M21" s="105">
+        <v>0</v>
+      </c>
+      <c r="N21" s="106">
+        <v>1</v>
+      </c>
+      <c r="O21" s="106">
+        <v>1</v>
+      </c>
+      <c r="P21" s="106">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="106">
+        <v>1</v>
+      </c>
+      <c r="R21" s="105">
+        <v>0</v>
+      </c>
+      <c r="S21" s="105"/>
+      <c r="T21" s="105"/>
+      <c r="U21" s="105"/>
+      <c r="V21" s="105"/>
+      <c r="W21" s="105"/>
+      <c r="X21" s="105"/>
+      <c r="Y21" s="108"/>
+      <c r="Z21" s="108"/>
+      <c r="AA21" s="108"/>
+      <c r="AB21" s="105"/>
+      <c r="AC21" s="105"/>
+      <c r="AD21" s="105"/>
+      <c r="AE21" s="105"/>
+      <c r="AF21" s="105"/>
+      <c r="AG21" s="105"/>
+    </row>
+    <row r="22" spans="1:33">
+      <c r="A22" s="105"/>
+      <c r="B22" s="105"/>
+      <c r="C22" s="105"/>
+      <c r="D22" s="105"/>
+      <c r="E22" s="105"/>
+      <c r="F22" s="105"/>
+      <c r="G22" s="105"/>
+      <c r="H22" s="105"/>
+      <c r="I22" s="105"/>
+      <c r="J22" s="105"/>
+      <c r="K22" s="105"/>
+      <c r="L22" s="105"/>
+      <c r="M22" s="105"/>
+      <c r="N22" s="105"/>
+      <c r="O22" s="105"/>
+      <c r="P22" s="105"/>
+      <c r="Q22" s="105"/>
+      <c r="R22" s="105"/>
+      <c r="S22" s="105"/>
+      <c r="T22" s="105"/>
+      <c r="U22" s="105"/>
+      <c r="V22" s="105"/>
+      <c r="W22" s="105"/>
+      <c r="X22" s="105"/>
+      <c r="Y22" s="108"/>
+      <c r="Z22" s="108"/>
+      <c r="AA22" s="108"/>
+      <c r="AB22" s="105"/>
+      <c r="AC22" s="105"/>
+      <c r="AD22" s="105"/>
+      <c r="AE22" s="105"/>
+      <c r="AF22" s="105"/>
+      <c r="AG22" s="105"/>
+    </row>
+    <row r="23" spans="1:33">
+      <c r="A23" s="105"/>
+      <c r="B23" s="105"/>
+      <c r="C23" s="105"/>
+      <c r="D23" s="105"/>
+      <c r="E23" s="105"/>
+      <c r="F23" s="105"/>
+      <c r="G23" s="105"/>
+      <c r="H23" s="105"/>
+      <c r="I23" s="105"/>
+      <c r="J23" s="105"/>
+      <c r="K23" s="105"/>
+      <c r="L23" s="105"/>
+      <c r="M23" s="105"/>
+      <c r="N23" s="105"/>
+      <c r="O23" s="105"/>
+      <c r="P23" s="105"/>
+      <c r="Q23" s="105"/>
+      <c r="R23" s="105"/>
+      <c r="S23" s="105"/>
+      <c r="T23" s="105"/>
+      <c r="U23" s="105"/>
+      <c r="V23" s="105"/>
+      <c r="W23" s="105"/>
+      <c r="X23" s="105"/>
+      <c r="Y23" s="105"/>
+      <c r="Z23" s="105"/>
+      <c r="AA23" s="105"/>
+      <c r="AB23" s="105"/>
+      <c r="AC23" s="105"/>
+      <c r="AD23" s="105"/>
+      <c r="AE23" s="105"/>
+      <c r="AF23" s="105"/>
+      <c r="AG23" s="105"/>
+    </row>
+    <row r="24" spans="1:33">
+      <c r="A24" s="105"/>
+      <c r="B24" s="105"/>
+      <c r="C24" s="105"/>
+      <c r="D24" s="105"/>
+      <c r="E24" s="105"/>
+      <c r="F24" s="105"/>
+      <c r="G24" s="105"/>
+      <c r="H24" s="105"/>
+      <c r="I24" s="105"/>
+      <c r="J24" s="105"/>
+      <c r="K24" s="105"/>
+      <c r="L24" s="105"/>
+      <c r="M24" s="105"/>
+      <c r="N24" s="105"/>
+      <c r="O24" s="105"/>
+      <c r="P24" s="105"/>
+      <c r="Q24" s="105"/>
+      <c r="R24" s="105"/>
+      <c r="S24" s="105"/>
+      <c r="T24" s="105"/>
+      <c r="U24" s="105"/>
+      <c r="V24" s="105"/>
+      <c r="W24" s="105"/>
+      <c r="X24" s="105"/>
+      <c r="Y24" s="105"/>
+      <c r="Z24" s="105"/>
+      <c r="AA24" s="105"/>
+      <c r="AB24" s="105"/>
+      <c r="AC24" s="105"/>
+      <c r="AD24" s="105"/>
+      <c r="AE24" s="105"/>
+      <c r="AF24" s="105"/>
+      <c r="AG24" s="105"/>
+    </row>
+    <row r="25" spans="1:33">
+      <c r="A25" s="105"/>
+      <c r="B25" s="105"/>
+      <c r="C25" s="105"/>
+      <c r="D25" s="105"/>
+      <c r="E25" s="105"/>
+      <c r="F25" s="105"/>
+      <c r="G25" s="105"/>
+      <c r="H25" s="105"/>
+      <c r="I25" s="105"/>
+      <c r="J25" s="105"/>
+      <c r="K25" s="105"/>
+      <c r="L25" s="105"/>
+      <c r="M25" s="105"/>
+      <c r="N25" s="105"/>
+      <c r="O25" s="105"/>
+      <c r="P25" s="105"/>
+      <c r="Q25" s="105"/>
+      <c r="R25" s="105"/>
+      <c r="S25" s="105"/>
+      <c r="T25" s="105"/>
+      <c r="U25" s="105"/>
+      <c r="V25" s="105"/>
+      <c r="W25" s="105"/>
+      <c r="X25" s="105"/>
+      <c r="Y25" s="105"/>
+      <c r="Z25" s="105"/>
+      <c r="AA25" s="105"/>
+      <c r="AB25" s="105"/>
+      <c r="AC25" s="105"/>
+      <c r="AD25" s="105"/>
+      <c r="AE25" s="105"/>
+      <c r="AF25" s="105"/>
+      <c r="AG25" s="105"/>
+    </row>
+    <row r="26" spans="1:33">
+      <c r="A26" s="105"/>
+      <c r="B26" s="105"/>
+      <c r="C26" s="105"/>
+      <c r="D26" s="105"/>
+      <c r="E26" s="105"/>
+      <c r="F26" s="105"/>
+      <c r="G26" s="105"/>
+      <c r="H26" s="105"/>
+      <c r="I26" s="105"/>
+      <c r="J26" s="105"/>
+      <c r="K26" s="105"/>
+      <c r="L26" s="105"/>
+      <c r="M26" s="105"/>
+      <c r="N26" s="105"/>
+      <c r="O26" s="105"/>
+      <c r="P26" s="105"/>
+      <c r="Q26" s="105"/>
+      <c r="R26" s="105"/>
+      <c r="S26" s="105"/>
+      <c r="T26" s="105"/>
+      <c r="U26" s="105"/>
+      <c r="V26" s="105"/>
+      <c r="W26" s="105"/>
+      <c r="X26" s="105"/>
+      <c r="Y26" s="105"/>
+      <c r="Z26" s="105"/>
+      <c r="AA26" s="105"/>
+      <c r="AB26" s="105"/>
+      <c r="AC26" s="105"/>
+      <c r="AD26" s="105"/>
+      <c r="AE26" s="105"/>
+      <c r="AF26" s="105"/>
+      <c r="AG26" s="105"/>
+    </row>
+    <row r="27" spans="1:33">
+      <c r="A27" s="105"/>
+      <c r="B27" s="105"/>
+      <c r="C27" s="105"/>
+      <c r="D27" s="105"/>
+      <c r="E27" s="105"/>
+      <c r="F27" s="105"/>
+      <c r="G27" s="105"/>
+      <c r="H27" s="105"/>
+      <c r="I27" s="105"/>
+      <c r="J27" s="105"/>
+      <c r="K27" s="105"/>
+      <c r="L27" s="105"/>
+      <c r="M27" s="105"/>
+      <c r="N27" s="105"/>
+      <c r="O27" s="105"/>
+      <c r="P27" s="105"/>
+      <c r="Q27" s="105"/>
+      <c r="R27" s="105"/>
+      <c r="S27" s="105"/>
+      <c r="T27" s="105"/>
+      <c r="U27" s="105"/>
+      <c r="V27" s="105"/>
+      <c r="W27" s="105"/>
+      <c r="X27" s="105"/>
+      <c r="Y27" s="105"/>
+      <c r="Z27" s="105"/>
+      <c r="AA27" s="105"/>
+      <c r="AB27" s="105"/>
+      <c r="AC27" s="105"/>
+      <c r="AD27" s="105"/>
+      <c r="AE27" s="105"/>
+      <c r="AF27" s="105"/>
+      <c r="AG27" s="105"/>
+    </row>
+    <row r="28" spans="1:33">
+      <c r="A28" s="105"/>
+      <c r="B28" s="105"/>
+      <c r="C28" s="105"/>
+      <c r="D28" s="105"/>
+      <c r="E28" s="105"/>
+      <c r="F28" s="105"/>
+      <c r="G28" s="105"/>
+      <c r="H28" s="105"/>
+      <c r="I28" s="105"/>
+      <c r="J28" s="105"/>
+      <c r="K28" s="105"/>
+      <c r="L28" s="105"/>
+      <c r="M28" s="105"/>
+      <c r="N28" s="105"/>
+      <c r="O28" s="105"/>
+      <c r="P28" s="105"/>
+      <c r="Q28" s="105"/>
+      <c r="R28" s="105"/>
+      <c r="S28" s="105"/>
+      <c r="T28" s="105"/>
+      <c r="U28" s="105"/>
+      <c r="V28" s="105"/>
+      <c r="W28" s="105"/>
+      <c r="X28" s="105"/>
+      <c r="Y28" s="105"/>
+      <c r="Z28" s="105"/>
+      <c r="AA28" s="105"/>
+      <c r="AB28" s="105"/>
+      <c r="AC28" s="105"/>
+      <c r="AD28" s="105"/>
+      <c r="AE28" s="105"/>
+      <c r="AF28" s="105"/>
+      <c r="AG28" s="105"/>
+    </row>
+    <row r="32" spans="1:33">
+      <c r="H32" t="s">
+        <v>566</v>
+      </c>
+      <c r="I32" t="s">
+        <v>567</v>
+      </c>
+      <c r="J32" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="33" spans="8:11">
+      <c r="H33">
+        <v>28</v>
+      </c>
+      <c r="I33">
+        <v>28</v>
+      </c>
+      <c r="J33">
+        <f>28*28</f>
+        <v>784</v>
+      </c>
+      <c r="K33" t="s">
+        <v>568</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:S81"/>
   <sheetViews>
@@ -49592,29 +51176,29 @@
       <c r="B24" s="36" t="s">
         <v>542</v>
       </c>
-      <c r="C24" s="114" t="s">
+      <c r="C24" s="121" t="s">
         <v>526</v>
       </c>
-      <c r="D24" s="114"/>
+      <c r="D24" s="121"/>
       <c r="G24">
         <f>SUM(H16:H20)</f>
         <v>420</v>
       </c>
-      <c r="H24" s="103">
+      <c r="H24" s="110">
         <f>G24/G25</f>
         <v>0.97674418604651159</v>
       </c>
     </row>
     <row r="25" spans="2:14">
-      <c r="C25" s="113" t="s">
+      <c r="C25" s="120" t="s">
         <v>525</v>
       </c>
-      <c r="D25" s="113"/>
+      <c r="D25" s="120"/>
       <c r="G25">
         <f>SUM(F16:F20)</f>
         <v>430</v>
       </c>
-      <c r="H25" s="103"/>
+      <c r="H25" s="110"/>
       <c r="N25" t="s">
         <v>524</v>
       </c>
@@ -50509,7 +52093,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C24"/>
   <sheetViews>
@@ -50534,7 +52118,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D14"/>
   <sheetViews>
@@ -50622,7 +52206,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D29"/>
   <sheetViews>
@@ -50772,234 +52356,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C46"/>
-  <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="3" max="3" width="12.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:3">
-      <c r="B2" s="36" t="s">
-        <v>139</v>
-      </c>
-      <c r="C2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3">
-      <c r="B3" s="36"/>
-    </row>
-    <row r="4" spans="2:3">
-      <c r="B4" s="36" t="s">
-        <v>144</v>
-      </c>
-      <c r="C4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3">
-      <c r="B5" s="36"/>
-    </row>
-    <row r="6" spans="2:3">
-      <c r="B6" s="36" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3">
-      <c r="B7" s="36"/>
-    </row>
-    <row r="8" spans="2:3">
-      <c r="B8" s="36" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3">
-      <c r="B9" s="36"/>
-    </row>
-    <row r="10" spans="2:3">
-      <c r="B10" s="36" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3">
-      <c r="B11" s="36"/>
-    </row>
-    <row r="12" spans="2:3">
-      <c r="B12" s="36" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3">
-      <c r="B13" s="36"/>
-    </row>
-    <row r="14" spans="2:3">
-      <c r="B14" s="36" t="s">
-        <v>141</v>
-      </c>
-      <c r="C14" s="35" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3">
-      <c r="B15" s="36"/>
-      <c r="C15" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3">
-      <c r="B16" s="36" t="s">
-        <v>146</v>
-      </c>
-      <c r="C16" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2">
-      <c r="B23" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2">
-      <c r="B24" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2">
-      <c r="B25" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2">
-      <c r="B26" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2">
-      <c r="B27" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2">
-      <c r="B28" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2">
-      <c r="B29" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2">
-      <c r="B30" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2">
-      <c r="B31" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2">
-      <c r="B32" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2">
-      <c r="B35" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2">
-      <c r="B36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2">
-      <c r="B37" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2">
-      <c r="B38" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2">
-      <c r="B39" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2">
-      <c r="B40" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2">
-      <c r="B41" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2">
-      <c r="B42" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2">
-      <c r="B43" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2">
-      <c r="B44" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2">
-      <c r="B45" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2">
-      <c r="B46" t="s">
-        <v>167</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>